--- a/bang-off-control/optimal_thrusts.xlsx
+++ b/bang-off-control/optimal_thrusts.xlsx
@@ -357,11 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -380,7 +379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>25</v>
       </c>
@@ -394,7 +393,7 @@
         <v>1.2652600000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>25</v>
       </c>
@@ -422,7 +421,7 @@
         <v>1.2735700000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>25</v>
       </c>
@@ -450,7 +449,7 @@
         <v>1.3099799999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>25</v>
       </c>
@@ -464,7 +463,7 @@
         <v>1.35144</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>25</v>
       </c>
@@ -492,7 +491,7 @@
         <v>1.3683799999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>25</v>
       </c>
@@ -520,7 +519,7 @@
         <v>1.4138900000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>25</v>
       </c>
@@ -548,7 +547,7 @@
         <v>1.47177</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>25</v>
       </c>
@@ -590,7 +589,7 @@
         <v>1.5272399999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>25</v>
       </c>
@@ -604,7 +603,7 @@
         <v>1.5325500000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>25</v>
       </c>
@@ -646,7 +645,7 @@
         <v>1.5891299999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>25</v>
       </c>
@@ -674,7 +673,7 @@
         <v>1.65541</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>25</v>
       </c>
@@ -702,7 +701,7 @@
         <v>1.68692</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -730,7 +729,7 @@
         <v>1.7238899999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -772,7 +771,7 @@
         <v>1.82945</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>25</v>
       </c>
@@ -786,7 +785,7 @@
         <v>1.8590800000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>25</v>
       </c>
@@ -814,7 +813,7 @@
         <v>1.8949100000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>25</v>
       </c>
@@ -856,7 +855,7 @@
         <v>2.0257900000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>25</v>
       </c>
@@ -884,7 +883,7 @@
         <v>2.14927</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>25</v>
       </c>
@@ -898,7 +897,7 @@
         <v>2.1772499999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>25</v>
       </c>
@@ -940,7 +939,7 @@
         <v>2.3742700000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>25</v>
       </c>
@@ -968,7 +967,7 @@
         <v>2.75814</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>25</v>
       </c>
@@ -996,7 +995,7 @@
         <v>2.9590900000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>25</v>
       </c>
@@ -1024,7 +1023,7 @@
         <v>3.4079299999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>25</v>
       </c>
@@ -1054,11 +1053,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D49">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="50"/>
-      </filters>
-    </filterColumn>
+    <sortState ref="A2:D49">
+      <sortCondition ref="D1:D49"/>
+    </sortState>
   </autoFilter>
   <sortState ref="A2:D51">
     <sortCondition ref="D2:D51"/>
